--- a/docs/calculator_documentation.xlsx
+++ b/docs/calculator_documentation.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Menu Options" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculator Methods" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History Management" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Handling" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage Statistics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +29,23 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,286 +430,1091 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1">
-        <f>== Sheet: Menu Options ===</f>
-        <v/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Option Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Option Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Function</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Input Required</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Error Handling</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Adds two numbers</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Two floating-point numbers</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sum of the numbers</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.5 + 3.2 = 8.7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Subtract</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Subtracts second number from first</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Two floating-point numbers</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Difference of the numbers</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.0 - 4.5 = 5.5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Multiply</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Multiplies two numbers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Two floating-point numbers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Product of the numbers</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.0 * 4.0 = 12.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Divide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Divides first number by second</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Two floating-point numbers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quotient of the numbers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.0 / 3.0 = 5.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Raises ValueError for division by zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Raises first number to power of second</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Two floating-point numbers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Result of exponentiation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.0 ^ 3.0 = 8.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Show History</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Displays all previous calculations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>List of calculation strings</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>"5.5 + 3.2 = 8.7"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Shows 'No calculations yet' if empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clear History</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Removes all calculation history</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Confirmation message</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>"History cleared."</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No errors possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Terminates the application</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Goodbye message</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>"Goodbye!"</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No errors possible</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>History Format</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Error Handling</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>addition(a, b)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adds two numbers</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a, b (numbers)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>"a + b = result"</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option Number</t>
+          <t>subtract(a, b)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Option Name</t>
+          <t>Subtracts second from first</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Function</t>
+          <t>a, b (numbers)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Input Required</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>"a - b = result"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Example</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Error Handling</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-------------|-------------------|---------------------------|--------------------|-----------------------|----------------------|-------------------------------------</t>
+          <t>multiply(a, b)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Multiplies two numbers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>a, b (numbers)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>"a * b = result"</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>divide(a, b)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Addition</t>
+          <t>Divides first by second</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adds two numbers</t>
+          <t>a, b (numbers)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Two floating-point numbers</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sum of the numbers</t>
+          <t>"a / b = result"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.5 + 3.2 = 8.7</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Handles invalid input gracefully, e.g., non-numeric values or strings are ignored and not added to history</t>
+          <t>ValueError for division by zero</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>power(a, b)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Subtract</t>
+          <t>Raises a to power of b</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Subtracts second number from first</t>
+          <t>a, b (numbers)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Two floating-point numbers</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Difference of the numbers</t>
+          <t>"a ^ b = result"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.0 - 4.5 = 5.5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Handles invalid input gracefully, e.g., non-numeric values or strings are ignored and not added to history</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>get_history()</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multiply</t>
+          <t>Retrieves calculation history</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Multiplies two numbers</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Two floating-point numbers</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Product of the numbers</t>
+          <t>Returns history list</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.0 * 4.0 = 12.0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Handles invalid input gracefully, e.g., non-numeric values or strings are ignored and not added to history</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>clear_history()</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Divide</t>
+          <t>Clears all history</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Divides first number by second</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Two floating-point numbers</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Quotient of the numbers</t>
+          <t>Clears history list</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.0 / 3.0 = 5.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Raises ValueError for division by zero, e.g., dividing by zero or non-numeric values results in a prompt to enter valid inputs</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Implementation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Example Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Automatic Logging</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>All operations logged automatically</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Appended to history list</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>"5.5 + 3.2 = 8.7"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>History Format</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Standardized string format</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"number1 operation number2 = result"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>"10.0 - 4.0 = 6.0"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>View History</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Display all calculations</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Option 6 in menu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Shows formatted list</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Clear History</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Reset history to empty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Option 7 in menu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"History cleared."</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Session Persistence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>History maintained during session</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Stored in instance variable</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Available until cleared or exit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="41" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Trigger Condition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recovery Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ValueError (Division by Zero)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Attempting to divide by 0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"Cannot divide by zero"</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>User can try again with different input</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ValueError (Invalid Input)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Entering non-numeric values</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"Error: [error message]"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>User prompted to enter valid numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Invalid Menu Choice</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Entering choice outside 1-8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>"Invalid choice. Please try again."</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>User can select valid option</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Typical Use Cases</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Basic arithmetic, totals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtraction</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Basic arithmetic, differences</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Scaling, area calculations</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ratios, averages</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Raises first number to power of second</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Two floating-point numbers</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Result of exponentiation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.0 ^ 3.0 = 8.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Handles invalid input gracefully, e.g., non-numeric values or strings are ignored and not added to history</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Show History</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Displays all previous calculations</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>List of calculation strings</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>"5.5 + 3.2 = 8.7"</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Shows the entire list of past operations, including those performed by other users if applicable</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Exponential calculations</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>History View</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Reviewing calculations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O(n) where n = history length</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>History Clear</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Starting fresh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>O(1)</t>
         </is>
       </c>
     </row>

--- a/docs/calculator_documentation.xlsx
+++ b/docs/calculator_documentation.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,11 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,6 +767,212 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>No errors possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Option Number</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Option Name</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Function</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Input Required</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Error Handling</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>-------------|-------------|-----------------------------------|----------------------|-----------------------|--------------------------------|--------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Addition</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Adds two numbers together</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Two floating-point...| Sum of the numbers</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5.5 + 3.2 = 8.7</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Subtract</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Subt0rctes second number from first| Two floating-point..| Difference of the numb...| 10.0 - 4.5 = 5.5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Multiply</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Multiplies two numbers together</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Two floating-point..| Product of the numbers| 3.0 * 4.0 = 12.0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Divide</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Divides first number by second</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Two floating-point..| Quotient of the numb...| 15.0 / 3.0 = 5.0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Raises ValueError for division by zero; handles other errors gracefully</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Raises first number to power of se...| Two floating-point..| Result of exponenti...| 2.0 ^ 3.0 = 8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Handles invalid input gracefully, including non-numeric inputs and negative results for even roots (raising an error or returning a complex result)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Show History| Displays all previous calculations</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>List of calculation...</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>"5.5 + 3.2 = 8.7", ...</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Shows the history list, handles empty lists gracefully</t>
         </is>
       </c>
     </row>

--- a/docs/calculator_documentation.xlsx
+++ b/docs/calculator_documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BP220\test-simple-repo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BP220\test-simple-repo-docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Option Number</t>
   </si>
@@ -142,18 +142,6 @@
   </si>
   <si>
     <t>No errors possible</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>Terminates the application</t>
-  </si>
-  <si>
-    <t>Goodbye message</t>
-  </si>
-  <si>
-    <t>"Goodbye!"</t>
   </si>
 </sst>
 </file>
@@ -508,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,29 +696,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
